--- a/src/org/ramadda/plugins/userguide/htdocs/userguide/examples/collections2.xlsx
+++ b/src/org/ramadda/plugins/userguide/htdocs/userguide/examples/collections2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffmc/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffmc/source/ramadda/src/org/ramadda/plugins/userguide/htdocs/userguide/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E813CC8-B65A-2A4E-8052-6971F7A37C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595127C9-240F-2D43-A654-40B161D47E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="1280" windowWidth="30240" windowHeight="17300" xr2:uid="{A472D238-871B-C149-A369-4ED7C5736762}"/>
+    <workbookView xWindow="0" yWindow="1280" windowWidth="30240" windowHeight="17300" xr2:uid="{A472D238-871B-C149-A369-4ED7C5736762}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>Some shelf collection</t>
   </si>
   <si>
-    <t>type_archive_collection.shelf_location</t>
-  </si>
-  <si>
     <t>#example spreadsheet for ramadda import</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>item 3</t>
+  </si>
+  <si>
+    <t>column:type_archive_collection.shelf_location</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,40 +579,40 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -638,7 +638,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -720,7 +720,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -728,35 +728,35 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
